--- a/Data Files/TestData - Copy.xlsx
+++ b/Data Files/TestData - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Katalon Studio\AccessReg-main\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C85A3-6C7A-495B-A18C-1B1268342F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EEA045-0AE1-41CB-94B6-8F539DBADE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="34" activeTab="37" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="2" activeTab="12" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="26" r:id="rId1"/>
@@ -4842,8 +4842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F523F3BF-8164-44E1-977A-66026445142F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4880,7 +4880,7 @@
         <v>750</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>1143</v>
       </c>
       <c r="C3" t="s">
         <v>749</v>
@@ -14370,8 +14370,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
